--- a/Sitios_Web/Medinet_v_3.0/Web/ReportesXLS/ReporteExcel.xlsx
+++ b/Sitios_Web/Medinet_v_3.0/Web/ReportesXLS/ReporteExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Listado de Productos Participantes</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Edición: 60</t>
   </si>
   <si>
-    <t>Laboratorio: GLAXOSMITHKLINE MÉXICO, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>Usuario: Luis Vega Caballero</t>
-  </si>
-  <si>
-    <t>Fecha: 21/02/2017 01:21:33 p. m.</t>
+    <t>Laboratorio: ABBOTT LABORATORIES DE MÉXICO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>Usuario: Juan Manuel Ramirez Osornio</t>
+  </si>
+  <si>
+    <t>Fecha: 03/03/2017 01:43:13 p. m.</t>
   </si>
   <si>
     <t>Categoría</t>
@@ -56,214 +56,521 @@
     <t>ProductShot</t>
   </si>
   <si>
+    <t>DUCRAY CUIDADOS DE LA PIEL</t>
+  </si>
+  <si>
+    <t>1PRUEBAA</t>
+  </si>
+  <si>
+    <t>Aerosol</t>
+  </si>
+  <si>
+    <t>Genérico de Marca</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SIN CAMBIOS</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>QUILAB LÍNEA FARMA</t>
+  </si>
+  <si>
+    <t>2PRUEBA</t>
+  </si>
+  <si>
+    <t>Comprimidos vaginales</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Sin Registro Sanitario y sin fracción COFEPRIS</t>
+  </si>
+  <si>
     <t>PRODUCTOS</t>
   </si>
   <si>
-    <t>ALTARGO AB</t>
-  </si>
-  <si>
-    <t>Ungüento</t>
-  </si>
-  <si>
-    <t>Rx</t>
-  </si>
-  <si>
-    <t>Tratamiento tópico de infecciones bacterianas de la piel y de la estructura cutánea</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SIN CAMBIOS</t>
-  </si>
-  <si>
-    <t>AVAMYS 2A</t>
+    <t>3TEPX</t>
+  </si>
+  <si>
+    <t>Tabletas</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>LÍNEA CETUS</t>
+  </si>
+  <si>
+    <t>6PRUEBA</t>
+  </si>
+  <si>
+    <t>Comprimidos recubiertos de liberación prolongada</t>
+  </si>
+  <si>
+    <t>PRODUCTOS NUTRICIONALES</t>
+  </si>
+  <si>
+    <t>ALIMENTUM</t>
+  </si>
+  <si>
+    <t>Polvo</t>
+  </si>
+  <si>
+    <t>Nutricionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñada para bebés con sensibilidad a la proteína de leche de
+vaca.</t>
+  </si>
+  <si>
+    <t>ALITRAQ</t>
+  </si>
+  <si>
+    <t>Nutrición enteral elemental especializada con glutamida.</t>
+  </si>
+  <si>
+    <t>PRODUCTOS FARMACÉUTICOS</t>
+  </si>
+  <si>
+    <t>BLOPRESS</t>
+  </si>
+  <si>
+    <t>Antihipertensivo.</t>
+  </si>
+  <si>
+    <t>BLOPRESS PLUS</t>
+  </si>
+  <si>
+    <t>CARDINIT</t>
+  </si>
+  <si>
+    <t>Parches</t>
+  </si>
+  <si>
+    <t>Insuficiencia cardiaca crónica y angina de pecho.</t>
+  </si>
+  <si>
+    <t>CONTROLIP</t>
+  </si>
+  <si>
+    <t>Cápsulas</t>
+  </si>
+  <si>
+    <t>Reductor del colesterol y triglicéridos.</t>
+  </si>
+  <si>
+    <t>CREON</t>
+  </si>
+  <si>
+    <t>Tratamiento de insuficiencia pancreática exocrina</t>
+  </si>
+  <si>
+    <t>CYCLINEX 1 Y CYCLINEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con defecto en el ciclo de la urea y síndrome HHH.</t>
+  </si>
+  <si>
+    <t>DEPAKENE</t>
+  </si>
+  <si>
+    <t>Antiepiléptico</t>
+  </si>
+  <si>
+    <t>Jarabe</t>
+  </si>
+  <si>
+    <t>Solución inyectable</t>
+  </si>
+  <si>
+    <t>DICETEL</t>
+  </si>
+  <si>
+    <t>Tabletas recubiertas</t>
+  </si>
+  <si>
+    <t>Sin asignar</t>
+  </si>
+  <si>
+    <t>Antiespasmódico, antagonista del calcio.</t>
+  </si>
+  <si>
+    <t>DILACORAN</t>
+  </si>
+  <si>
+    <t>Calcioantagonista, antianginoso, antiarrítmico y antihipertensivo.</t>
+  </si>
+  <si>
+    <t>DILACORAN RETARD</t>
+  </si>
+  <si>
+    <t>Tabletas de liberación prolongada</t>
+  </si>
+  <si>
+    <t>Calcioantagonista de acción prolongada y antihipertensivo.</t>
+  </si>
+  <si>
+    <t>DUPHALAC</t>
+  </si>
+  <si>
+    <t>Laxante</t>
+  </si>
+  <si>
+    <t>DUPHASTON</t>
+  </si>
+  <si>
+    <t>Progestágeno con acción hormonal selectiva progestacional.</t>
+  </si>
+  <si>
+    <t>DUSPATALIN</t>
+  </si>
+  <si>
+    <t>Cápsulas de liberación prolongada</t>
+  </si>
+  <si>
+    <t>Antiespasmódico</t>
+  </si>
+  <si>
+    <t>DUSPATALIN PEDIÁTRICO</t>
   </si>
   <si>
     <t>Suspensión</t>
   </si>
   <si>
-    <t>Atomizador nasal. Tratamiento de los síntomas nasales de la rinitis alérgica estacional y perenne.</t>
-  </si>
-  <si>
-    <t>AVODART</t>
-  </si>
-  <si>
-    <t>Cápsulas</t>
-  </si>
-  <si>
-    <t>Hiperplasia prostática benigna.</t>
-  </si>
-  <si>
-    <t>BACTROBAN</t>
-  </si>
-  <si>
-    <t>Antibiótico tópico de amplio espectro para infecciones superficiales de la piel.</t>
-  </si>
-  <si>
-    <t>BOOSTRIX</t>
-  </si>
-  <si>
-    <t>Suspensión inyectable</t>
-  </si>
-  <si>
-    <t>Vacuna de refuerzo contra difteria, tétanos y tos ferina acelular.</t>
-  </si>
-  <si>
-    <t>CERVARIX</t>
-  </si>
-  <si>
-    <t>Vacuna contra VPH tipo 16 y 18.</t>
-  </si>
-  <si>
-    <t>COMBIVIR</t>
-  </si>
-  <si>
-    <t>Tabletas</t>
-  </si>
-  <si>
-    <t>Antiviral.</t>
-  </si>
-  <si>
-    <t>COMBODART</t>
-  </si>
-  <si>
-    <t>ETALOKARE</t>
-  </si>
-  <si>
-    <t>Sin asignar</t>
-  </si>
-  <si>
-    <t>FLIXOTIDE</t>
-  </si>
-  <si>
-    <t>Aerosol</t>
-  </si>
-  <si>
-    <t>Antiasmático.</t>
-  </si>
-  <si>
-    <t>FLIXOTIDE NEBULES</t>
-  </si>
-  <si>
-    <t>Antiinflamatorio esteroideo.</t>
-  </si>
-  <si>
-    <t>FLUARIX</t>
-  </si>
-  <si>
-    <t>Vacuna viral contra la gripe tipos trivalentes A y B.Cepas 2007-2008.</t>
-  </si>
-  <si>
-    <t>INFANRIX HEXA</t>
-  </si>
-  <si>
-    <t>Vacuna combinada contra difteria, tétanos, tos ferina acelular, hepatitis B, poliomielitis y Haemophilus influenzae.</t>
-  </si>
-  <si>
-    <t>KIVEXA</t>
-  </si>
-  <si>
-    <t>Antirretroviral.</t>
-  </si>
-  <si>
-    <t>LAMICTAL DISPERSABLE</t>
+    <t>Antiespasmódico.</t>
+  </si>
+  <si>
+    <t>ELECARE</t>
+  </si>
+  <si>
+    <t>Diseñada para lactantes con necesidades especiales de nutrición.</t>
+  </si>
+  <si>
+    <t>ENSURE ADVANCE</t>
+  </si>
+  <si>
+    <t>Diseñado para complementar la alimentación de adultos mayores con mal nutrición.</t>
+  </si>
+  <si>
+    <t>ENSURE PLUS</t>
+  </si>
+  <si>
+    <t>Líquido</t>
+  </si>
+  <si>
+    <t>Nutrición enteral, líquida, hipercalórica y baja en residuo.</t>
+  </si>
+  <si>
+    <t>ENSURE POLVO</t>
+  </si>
+  <si>
+    <t>ENSURE REGULAR</t>
+  </si>
+  <si>
+    <t>Suplemento alimenticio.</t>
+  </si>
+  <si>
+    <t>EPIVAL</t>
+  </si>
+  <si>
+    <t>Comprimidos</t>
+  </si>
+  <si>
+    <t>Anticonvulsivo.</t>
+  </si>
+  <si>
+    <t>EPIVAL ER</t>
   </si>
   <si>
     <t>Antiepiléptico.</t>
   </si>
   <si>
-    <t>PAXIL</t>
-  </si>
-  <si>
-    <t>Antidepresivo. Inhibidor selectivo de la recaptura de serotonina.</t>
-  </si>
-  <si>
-    <t>PAXIL CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabletas liberación  prolongada</t>
-  </si>
-  <si>
-    <t>Antidepresivo. Inhibidor potente y selectivo de la recaptura de serotonina.</t>
-  </si>
-  <si>
-    <t>RELVARE</t>
-  </si>
-  <si>
-    <t>Polvo</t>
-  </si>
-  <si>
-    <t>REVOLADE</t>
-  </si>
-  <si>
-    <t>Tratamiento de pacientes con púrpura trombocitopénica inmune (idiopática) crónica</t>
-  </si>
-  <si>
-    <t>ROTARIX</t>
-  </si>
-  <si>
-    <t>Vacuna contra rotavirus.</t>
-  </si>
-  <si>
-    <t>SELZENTRY</t>
-  </si>
-  <si>
-    <t>SERETIDE DISKUS</t>
-  </si>
-  <si>
-    <t>Broncodilatador y antiinflamatorio esteroideo.</t>
-  </si>
-  <si>
-    <t>SERETIDE EVOHALER</t>
-  </si>
-  <si>
-    <t>Suspensión en aerosol</t>
-  </si>
-  <si>
-    <t>SYNFLORIX</t>
-  </si>
-  <si>
-    <t>Vacuna conjugada de polisacárido neumocócico y proteína D de Haemophilus influenzae no tipificable (NTHi), adsorbido</t>
-  </si>
-  <si>
-    <t>TWINRIX</t>
-  </si>
-  <si>
-    <t>Vacuna contra la hepatitis A y hepatitis B.</t>
-  </si>
-  <si>
-    <t>TYKERB</t>
-  </si>
-  <si>
-    <t>Tratamiento de cáncer de mama avanzado o metastásico.</t>
-  </si>
-  <si>
-    <t>VENTOLIN</t>
-  </si>
-  <si>
-    <t>Broncodilatador.</t>
-  </si>
-  <si>
-    <t>Solución</t>
-  </si>
-  <si>
-    <t>Solución inyectable</t>
-  </si>
-  <si>
-    <t>VOTRIENT</t>
-  </si>
-  <si>
-    <t>Tratamiento de carcinomas en células renales en estado avanzado y/o metastgásico</t>
-  </si>
-  <si>
-    <t>WELLBUTRIN</t>
-  </si>
-  <si>
-    <t>Tabletas de liberación prolongada</t>
-  </si>
-  <si>
-    <t>Antidepresivo</t>
+    <t>EPIVAL SPRINKLE</t>
+  </si>
+  <si>
+    <t>GAIN PLUS 3 IQ PLUS IMMUNIFY</t>
+  </si>
+  <si>
+    <t>Fórmula de continuación para niños de 1 a 3 años.</t>
+  </si>
+  <si>
+    <t>GLUCERNA 1.2 KCAL</t>
+  </si>
+  <si>
+    <t>Alimentación con fibra para personas con intolerancia a la glucosa.</t>
+  </si>
+  <si>
+    <t>GLUCERNA SR</t>
+  </si>
+  <si>
+    <t>Nutrición especializada para personas con diabetes.</t>
+  </si>
+  <si>
+    <t>GLUCERNA SR POLVO</t>
+  </si>
+  <si>
+    <t>Diseñada especialmente para personas con diabetes.</t>
+  </si>
+  <si>
+    <t>GLUTAREX 1 Y GLUTAREX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con acidemia glutárica de tipo I.</t>
+  </si>
+  <si>
+    <t>HOMINEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional y adultos con homocistinuria o hipermetioninemia.</t>
+  </si>
+  <si>
+    <t>ISOMIL 1 IQ PLUS IMMUNIFY</t>
+  </si>
+  <si>
+    <t>Fórmula con hierro para lactantes de 0 a 12 meses.</t>
+  </si>
+  <si>
+    <t>ISOMIL 2 IQ PLUS IMMUNIFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula de continuación a base de proteínas de soya para niños
+de 1 a 3 años.</t>
+  </si>
+  <si>
+    <t>I-VALEX 1 Y I-VALEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con acidemia isovalérica o desórdenes del catabolismo de la leucina.</t>
+  </si>
+  <si>
+    <t>KETONEX 1 Y KETONEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con cetoaciduria.</t>
+  </si>
+  <si>
+    <t>KLARICID 12H</t>
+  </si>
+  <si>
+    <t>Antibiótico.</t>
+  </si>
+  <si>
+    <t>KLARICID H.P.</t>
+  </si>
+  <si>
+    <t>Antibiótico macrólido.</t>
+  </si>
+  <si>
+    <t>KLARICID I.V.</t>
+  </si>
+  <si>
+    <t>KLARICID O.D.</t>
+  </si>
+  <si>
+    <t>LIPIDIL</t>
+  </si>
+  <si>
+    <t>LOWTIYEL</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>Terapia de reemplazo de testosterona por trastornos hipogonadales.</t>
+  </si>
+  <si>
+    <t>LUVOX</t>
+  </si>
+  <si>
+    <t>Antidepresivo.</t>
+  </si>
+  <si>
+    <t>NEPRO CON CARB STEADY</t>
+  </si>
+  <si>
+    <t>NIAR</t>
+  </si>
+  <si>
+    <t>Tratamiento de la enfermedad de Parkinson.</t>
+  </si>
+  <si>
+    <t>NORFENON</t>
+  </si>
+  <si>
+    <t>Antiarrítmico</t>
+  </si>
+  <si>
+    <t>OGASTRO</t>
+  </si>
+  <si>
+    <t>Antiulceroso</t>
+  </si>
+  <si>
+    <t>PEDIALYTE 30 mEq: CALOR E INSOLACIÓN</t>
+  </si>
+  <si>
+    <t>Solución para rehidratación oral</t>
+  </si>
+  <si>
+    <t>Rehidratante.</t>
+  </si>
+  <si>
+    <t>PEDIALYTE SR 45 mEq: DIARREA</t>
+  </si>
+  <si>
+    <t>Solución oral rehidratante</t>
+  </si>
+  <si>
+    <t>PEDIALYTE SR 6O mEq: DIARREA</t>
+  </si>
+  <si>
+    <t>PEDIASURE PLUS</t>
+  </si>
+  <si>
+    <t>Alimentación enteral para niños de entre 1 y 10 años de edad.</t>
+  </si>
+  <si>
+    <t>PERATIVE</t>
+  </si>
+  <si>
+    <t>Nutrición líquida especializada. Para nutrición enteral por sonda.</t>
+  </si>
+  <si>
+    <t>PHENEX 1 Y PHENEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con fenilcetonuria o hiperfenilalaninemia.</t>
+  </si>
+  <si>
+    <t>PRO-PHREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte nutricional para lactantes y niños que requieren calorías
+adicionales.</t>
+  </si>
+  <si>
+    <t>PROPIMEX 1 Y PROPIMEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con acidemia propiónica o metilmalónica.</t>
+  </si>
+  <si>
+    <t>PROSURE</t>
+  </si>
+  <si>
+    <t>Complemento nutricional.</t>
+  </si>
+  <si>
+    <t>PULMOCARE</t>
+  </si>
+  <si>
+    <t>Alimentación con balance calórico adecuado para personas con trastornos respiratorios.</t>
+  </si>
+  <si>
+    <t>SAMYR</t>
+  </si>
+  <si>
+    <t>Tratamiento de la insuficiencia hepática.</t>
+  </si>
+  <si>
+    <t>SERC</t>
+  </si>
+  <si>
+    <t>Antivertiginoso.</t>
+  </si>
+  <si>
+    <t>SIMILAC 1</t>
+  </si>
+  <si>
+    <t>SIMILAC 2</t>
+  </si>
+  <si>
+    <t>SIMILAC 3</t>
+  </si>
+  <si>
+    <t>SIMILAC AR</t>
+  </si>
+  <si>
+    <t>SIMILAC FORTIFICADOR DE LECHE HUMANA</t>
+  </si>
+  <si>
+    <t>Fortificador de la leche humana.</t>
+  </si>
+  <si>
+    <t>SIMILAC NEOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula con hierro para lactantes prematuros y/o lactantes con
+bajo peso.</t>
+  </si>
+  <si>
+    <t>SIMILAC SENSITIVE SIN LACTOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula láctea con hierro, libre de lactosa para la alimentación
+en niños con deficiencia de lactosa.</t>
+  </si>
+  <si>
+    <t>SIMILAC SPECIAL CARE 24 KCAL/OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula con hierro para lactantes prematuros y/o con bajo peso
+al nacer.</t>
+  </si>
+  <si>
+    <t>SIMILAC SPECIAL CARE 30 KCAL/OZ</t>
+  </si>
+  <si>
+    <t>SIMILAC TOTAL COMFORT HA IQ PLUS IMMUNIFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula con hierro para lactantes con proteína parcialmente
+hidrolizada.</t>
+  </si>
+  <si>
+    <t>SIMILAC TOTAL COMFORT HA2 IQ PLUS IMMUNIFY</t>
+  </si>
+  <si>
+    <t>SUPLENA</t>
+  </si>
+  <si>
+    <t>Nutrición líquida para personas con restricción en la ingesta de proteínas, líquidos y electrólitos.</t>
+  </si>
+  <si>
+    <t>TARKA</t>
+  </si>
+  <si>
+    <t>TEOLONG</t>
+  </si>
+  <si>
+    <t>Broncodilatador teofilínico.</t>
+  </si>
+  <si>
+    <t>TEVETENZ</t>
+  </si>
+  <si>
+    <t>Antihipertensivo</t>
+  </si>
+  <si>
+    <t>TEVETENZ DOX</t>
+  </si>
+  <si>
+    <t>TYREX 1 Y TYREX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con tirosinemia tipos I, II ó III.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -443,16 +750,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -461,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -469,16 +776,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
@@ -487,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -504,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>19</v>
@@ -513,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -521,16 +828,16 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
@@ -539,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -547,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -565,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -573,16 +880,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>19</v>
@@ -591,7 +898,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -599,15 +906,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
@@ -615,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -623,15 +932,17 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
@@ -639,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -647,16 +958,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>19</v>
@@ -665,24 +976,24 @@
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>19</v>
@@ -696,22 +1007,22 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>20</v>
@@ -722,22 +1033,20 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>20</v>
@@ -748,19 +1057,19 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -774,19 +1083,19 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>19</v>
@@ -800,19 +1109,19 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
@@ -826,19 +1135,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
@@ -852,18 +1161,20 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
@@ -876,19 +1187,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>19</v>
@@ -902,19 +1213,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
@@ -928,18 +1239,20 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
@@ -952,19 +1265,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>19</v>
@@ -978,19 +1291,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>19</v>
@@ -1004,19 +1317,19 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>19</v>
@@ -1030,19 +1343,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>19</v>
@@ -1056,19 +1369,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>19</v>
@@ -1082,19 +1395,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>19</v>
@@ -1108,19 +1421,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>19</v>
@@ -1134,19 +1447,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>19</v>
@@ -1160,19 +1473,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>19</v>
@@ -1186,27 +1499,1595 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Sitios_Web/Medinet_v_3.0/Web/ReportesXLS/ReporteExcel.xlsx
+++ b/Sitios_Web/Medinet_v_3.0/Web/ReportesXLS/ReporteExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Listado de Productos Participantes</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Obra: DICCIONARIO DE ESPECIALIDADES FARMACÉUTICAS</t>
   </si>
   <si>
-    <t>Edición: 60</t>
+    <t>Edición: 61</t>
   </si>
   <si>
     <t>Laboratorio: ABBOTT LABORATORIES DE MÉXICO, S.A. DE C.V.</t>
@@ -29,7 +29,7 @@
     <t>Usuario: Juan Manuel Ramirez Osornio</t>
   </si>
   <si>
-    <t>Fecha: 03/03/2017 01:43:13 p. m.</t>
+    <t>Fecha: 29/03/2017 05:42:28 p. m.</t>
   </si>
   <si>
     <t>Categoría</t>
@@ -77,39 +77,54 @@
     <t>SIN CAMBIOS</t>
   </si>
   <si>
+    <t>QUILAB LÍNEA FARMA</t>
+  </si>
+  <si>
+    <t>2PRUEBA</t>
+  </si>
+  <si>
+    <t>Comprimidos vaginales</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Sin Registro Sanitario y sin fracción COFEPRIS</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>3TEPX</t>
+  </si>
+  <si>
+    <t>Tabletas</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>LÍNEA AVENE</t>
+  </si>
+  <si>
+    <t>4PRUEBA</t>
+  </si>
+  <si>
+    <t>Crema desincrustante espumosa</t>
+  </si>
+  <si>
+    <t>Nutricionales</t>
+  </si>
+  <si>
+    <t>sin Registro sanitario, Con COFEPRIS</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>QUILAB LÍNEA FARMA</t>
-  </si>
-  <si>
-    <t>2PRUEBA</t>
-  </si>
-  <si>
-    <t>Comprimidos vaginales</t>
-  </si>
-  <si>
-    <t>Rx</t>
-  </si>
-  <si>
-    <t>Sin Registro Sanitario y sin fracción COFEPRIS</t>
-  </si>
-  <si>
-    <t>PRODUCTOS</t>
-  </si>
-  <si>
-    <t>3TEPX</t>
-  </si>
-  <si>
-    <t>Tabletas</t>
-  </si>
-  <si>
-    <t>OTC</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
     <t>LÍNEA CETUS</t>
   </si>
   <si>
@@ -119,6 +134,33 @@
     <t>Comprimidos recubiertos de liberación prolongada</t>
   </si>
   <si>
+    <t>PRODUCTOS DE CONSUMO</t>
+  </si>
+  <si>
+    <t>7PRUEBA</t>
+  </si>
+  <si>
+    <t>Cápsulas 500 mg</t>
+  </si>
+  <si>
+    <t>8PRUEBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,000 HYPAK Jeringa con solución inyectable	</t>
+  </si>
+  <si>
+    <t>PRODUCTOS FARMACÉUTICOS</t>
+  </si>
+  <si>
+    <t>AKINETON</t>
+  </si>
+  <si>
+    <t>Solución inyectable</t>
+  </si>
+  <si>
+    <t>Antiparkinsoniano. Síndrome extrapiramidal medicamentoso (SEM)</t>
+  </si>
+  <si>
     <t>PRODUCTOS NUTRICIONALES</t>
   </si>
   <si>
@@ -126,9 +168,6 @@
   </si>
   <si>
     <t>Polvo</t>
-  </si>
-  <si>
-    <t>Nutricionales</t>
   </si>
   <si>
     <t xml:space="preserve">Diseñada para bebés con sensibilidad a la proteína de leche de
@@ -141,7 +180,28 @@
     <t>Nutrición enteral elemental especializada con glutamida.</t>
   </si>
   <si>
-    <t>PRODUCTOS FARMACÉUTICOS</t>
+    <t>ANTIENVEJECIMIENTO</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>Genérico</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>BITALOFAR</t>
+  </si>
+  <si>
+    <t>Tableta</t>
+  </si>
+  <si>
+    <t>Sin asignar</t>
   </si>
   <si>
     <t>BLOPRESS</t>
@@ -162,226 +222,234 @@
     <t>Insuficiencia cardiaca crónica y angina de pecho.</t>
   </si>
   <si>
-    <t>CONTROLIP</t>
+    <t>CONTROLIP - 160</t>
   </si>
   <si>
     <t>Cápsulas</t>
   </si>
   <si>
+    <t>CONTROLIP-TRILIPIX</t>
+  </si>
+  <si>
+    <t>Cápsulas de liberación retardada</t>
+  </si>
+  <si>
+    <t>CREON</t>
+  </si>
+  <si>
+    <t>Tratamiento de insuficiencia pancreática exocrina</t>
+  </si>
+  <si>
+    <t>CYCLINEX 1 Y CYCLINEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con defecto en el ciclo de la urea y síndrome HHH.</t>
+  </si>
+  <si>
+    <t>DEPAKENE</t>
+  </si>
+  <si>
+    <t>Antiepiléptico</t>
+  </si>
+  <si>
+    <t>CON CAMBIO DE FONDO</t>
+  </si>
+  <si>
+    <t>Jarabe</t>
+  </si>
+  <si>
+    <t>DICETEL</t>
+  </si>
+  <si>
+    <t>Tabletas recubiertas</t>
+  </si>
+  <si>
+    <t>Antiespasmódico, antagonista del calcio.</t>
+  </si>
+  <si>
+    <t>DILACORAN</t>
+  </si>
+  <si>
+    <t>Calcioantagonista, antianginoso, antiarrítmico y antihipertensivo.</t>
+  </si>
+  <si>
+    <t>DUPHALAC</t>
+  </si>
+  <si>
+    <t>Laxante</t>
+  </si>
+  <si>
+    <t>DUPHASTON</t>
+  </si>
+  <si>
+    <t>Progestágeno con acción hormonal selectiva progestacional.</t>
+  </si>
+  <si>
+    <t>DUSPATALIN</t>
+  </si>
+  <si>
+    <t>Cápsulas de liberación prolongada</t>
+  </si>
+  <si>
+    <t>Antiespasmódico</t>
+  </si>
+  <si>
+    <t>DUSPATALIN PEDIÁTRICO</t>
+  </si>
+  <si>
+    <t>Suspensión</t>
+  </si>
+  <si>
+    <t>Antiespasmódico.</t>
+  </si>
+  <si>
+    <t>ELANTAN</t>
+  </si>
+  <si>
+    <t>ELANTAN RETARD</t>
+  </si>
+  <si>
+    <t>Nitroterapia para el tratamiento de las coronariopatías.</t>
+  </si>
+  <si>
+    <t>ELECARE</t>
+  </si>
+  <si>
+    <t>Diseñada para lactantes con necesidades especiales de nutrición.</t>
+  </si>
+  <si>
+    <t>ELLEKTA</t>
+  </si>
+  <si>
+    <t>ENSURE ADVANCE</t>
+  </si>
+  <si>
+    <t>Diseñado para complementar la alimentación de adultos mayores con mal nutrición.</t>
+  </si>
+  <si>
+    <t>ENSURE PLUS</t>
+  </si>
+  <si>
+    <t>Líquido</t>
+  </si>
+  <si>
+    <t>Nutrición enteral, líquida, hipercalórica y baja en residuo.</t>
+  </si>
+  <si>
+    <t>ENSURE POLVO</t>
+  </si>
+  <si>
+    <t>ENSURE REGULAR</t>
+  </si>
+  <si>
+    <t>Suplemento alimenticio.</t>
+  </si>
+  <si>
+    <t>EPIVAL</t>
+  </si>
+  <si>
+    <t>Comprimidos</t>
+  </si>
+  <si>
+    <t>Anticonvulsivo.</t>
+  </si>
+  <si>
+    <t>EPIVAL ER</t>
+  </si>
+  <si>
+    <t>Tabletas de liberación prolongada</t>
+  </si>
+  <si>
+    <t>Antiepiléptico.</t>
+  </si>
+  <si>
+    <t>EPIVAL SPRINKLE</t>
+  </si>
+  <si>
+    <t>FENABBOTT</t>
+  </si>
+  <si>
+    <t>Barbitúrico sedante e hipnótico, anticonvulsivante.</t>
+  </si>
+  <si>
+    <t>FREPADÁN</t>
+  </si>
+  <si>
+    <t>GLUCERNA SR</t>
+  </si>
+  <si>
+    <t>Nutrición especializada para personas con diabetes.</t>
+  </si>
+  <si>
+    <t>GLUCERNA SR POLVO</t>
+  </si>
+  <si>
+    <t>Diseñada especialmente para personas con diabetes.</t>
+  </si>
+  <si>
+    <t>GLUTAREX 1 Y GLUTAREX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con acidemia glutárica de tipo I.</t>
+  </si>
+  <si>
+    <t>HOMINEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional y adultos con homocistinuria o hipermetioninemia.</t>
+  </si>
+  <si>
+    <t>IRMEGLOL D</t>
+  </si>
+  <si>
+    <t>ISOKET</t>
+  </si>
+  <si>
+    <t>Solución</t>
+  </si>
+  <si>
+    <t>Antianginoso.</t>
+  </si>
+  <si>
+    <t>ISOMIL 1</t>
+  </si>
+  <si>
+    <t>ISOMIL 2</t>
+  </si>
+  <si>
+    <t>I-VALEX 1 Y I-VALEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con acidemia isovalérica o desórdenes del catabolismo de la leucina.</t>
+  </si>
+  <si>
+    <t>KETONEX 1 Y KETONEX 2</t>
+  </si>
+  <si>
+    <t>Soporte nutricional para niños y adultos con cetoaciduria.</t>
+  </si>
+  <si>
+    <t>KLARICID 12H</t>
+  </si>
+  <si>
+    <t>Antibiótico.</t>
+  </si>
+  <si>
+    <t>KLARICID I.V.</t>
+  </si>
+  <si>
+    <t>Antibiótico macrólido.</t>
+  </si>
+  <si>
+    <t>KLARICID O.D.</t>
+  </si>
+  <si>
+    <t>LIPIDIL</t>
+  </si>
+  <si>
     <t>Reductor del colesterol y triglicéridos.</t>
   </si>
   <si>
-    <t>CREON</t>
-  </si>
-  <si>
-    <t>Tratamiento de insuficiencia pancreática exocrina</t>
-  </si>
-  <si>
-    <t>CYCLINEX 1 Y CYCLINEX 2</t>
-  </si>
-  <si>
-    <t>Soporte nutricional para niños y adultos con defecto en el ciclo de la urea y síndrome HHH.</t>
-  </si>
-  <si>
-    <t>DEPAKENE</t>
-  </si>
-  <si>
-    <t>Antiepiléptico</t>
-  </si>
-  <si>
-    <t>Jarabe</t>
-  </si>
-  <si>
-    <t>Solución inyectable</t>
-  </si>
-  <si>
-    <t>DICETEL</t>
-  </si>
-  <si>
-    <t>Tabletas recubiertas</t>
-  </si>
-  <si>
-    <t>Sin asignar</t>
-  </si>
-  <si>
-    <t>Antiespasmódico, antagonista del calcio.</t>
-  </si>
-  <si>
-    <t>DILACORAN</t>
-  </si>
-  <si>
-    <t>Calcioantagonista, antianginoso, antiarrítmico y antihipertensivo.</t>
-  </si>
-  <si>
-    <t>DILACORAN RETARD</t>
-  </si>
-  <si>
-    <t>Tabletas de liberación prolongada</t>
-  </si>
-  <si>
-    <t>Calcioantagonista de acción prolongada y antihipertensivo.</t>
-  </si>
-  <si>
-    <t>DUPHALAC</t>
-  </si>
-  <si>
-    <t>Laxante</t>
-  </si>
-  <si>
-    <t>DUPHASTON</t>
-  </si>
-  <si>
-    <t>Progestágeno con acción hormonal selectiva progestacional.</t>
-  </si>
-  <si>
-    <t>DUSPATALIN</t>
-  </si>
-  <si>
-    <t>Cápsulas de liberación prolongada</t>
-  </si>
-  <si>
-    <t>Antiespasmódico</t>
-  </si>
-  <si>
-    <t>DUSPATALIN PEDIÁTRICO</t>
-  </si>
-  <si>
-    <t>Suspensión</t>
-  </si>
-  <si>
-    <t>Antiespasmódico.</t>
-  </si>
-  <si>
-    <t>ELECARE</t>
-  </si>
-  <si>
-    <t>Diseñada para lactantes con necesidades especiales de nutrición.</t>
-  </si>
-  <si>
-    <t>ENSURE ADVANCE</t>
-  </si>
-  <si>
-    <t>Diseñado para complementar la alimentación de adultos mayores con mal nutrición.</t>
-  </si>
-  <si>
-    <t>ENSURE PLUS</t>
-  </si>
-  <si>
-    <t>Líquido</t>
-  </si>
-  <si>
-    <t>Nutrición enteral, líquida, hipercalórica y baja en residuo.</t>
-  </si>
-  <si>
-    <t>ENSURE POLVO</t>
-  </si>
-  <si>
-    <t>ENSURE REGULAR</t>
-  </si>
-  <si>
-    <t>Suplemento alimenticio.</t>
-  </si>
-  <si>
-    <t>EPIVAL</t>
-  </si>
-  <si>
-    <t>Comprimidos</t>
-  </si>
-  <si>
-    <t>Anticonvulsivo.</t>
-  </si>
-  <si>
-    <t>EPIVAL ER</t>
-  </si>
-  <si>
-    <t>Antiepiléptico.</t>
-  </si>
-  <si>
-    <t>EPIVAL SPRINKLE</t>
-  </si>
-  <si>
-    <t>GAIN PLUS 3 IQ PLUS IMMUNIFY</t>
-  </si>
-  <si>
-    <t>Fórmula de continuación para niños de 1 a 3 años.</t>
-  </si>
-  <si>
-    <t>GLUCERNA 1.2 KCAL</t>
-  </si>
-  <si>
-    <t>Alimentación con fibra para personas con intolerancia a la glucosa.</t>
-  </si>
-  <si>
-    <t>GLUCERNA SR</t>
-  </si>
-  <si>
-    <t>Nutrición especializada para personas con diabetes.</t>
-  </si>
-  <si>
-    <t>GLUCERNA SR POLVO</t>
-  </si>
-  <si>
-    <t>Diseñada especialmente para personas con diabetes.</t>
-  </si>
-  <si>
-    <t>GLUTAREX 1 Y GLUTAREX 2</t>
-  </si>
-  <si>
-    <t>Soporte nutricional para niños y adultos con acidemia glutárica de tipo I.</t>
-  </si>
-  <si>
-    <t>HOMINEX 2</t>
-  </si>
-  <si>
-    <t>Soporte nutricional y adultos con homocistinuria o hipermetioninemia.</t>
-  </si>
-  <si>
-    <t>ISOMIL 1 IQ PLUS IMMUNIFY</t>
-  </si>
-  <si>
-    <t>Fórmula con hierro para lactantes de 0 a 12 meses.</t>
-  </si>
-  <si>
-    <t>ISOMIL 2 IQ PLUS IMMUNIFY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fórmula de continuación a base de proteínas de soya para niños
-de 1 a 3 años.</t>
-  </si>
-  <si>
-    <t>I-VALEX 1 Y I-VALEX 2</t>
-  </si>
-  <si>
-    <t>Soporte nutricional para niños y adultos con acidemia isovalérica o desórdenes del catabolismo de la leucina.</t>
-  </si>
-  <si>
-    <t>KETONEX 1 Y KETONEX 2</t>
-  </si>
-  <si>
-    <t>Soporte nutricional para niños y adultos con cetoaciduria.</t>
-  </si>
-  <si>
-    <t>KLARICID 12H</t>
-  </si>
-  <si>
-    <t>Antibiótico.</t>
-  </si>
-  <si>
-    <t>KLARICID H.P.</t>
-  </si>
-  <si>
-    <t>Antibiótico macrólido.</t>
-  </si>
-  <si>
-    <t>KLARICID I.V.</t>
-  </si>
-  <si>
-    <t>KLARICID O.D.</t>
-  </si>
-  <si>
-    <t>LIPIDIL</t>
-  </si>
-  <si>
     <t>LOWTIYEL</t>
   </si>
   <si>
@@ -391,13 +459,52 @@
     <t>Terapia de reemplazo de testosterona por trastornos hipogonadales.</t>
   </si>
   <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>Cápsulas 150 mg x 2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Lágrimas artificiales en gel</t>
+  </si>
+  <si>
+    <t>STIEFEL</t>
+  </si>
+  <si>
+    <t>LuisDDDD</t>
+  </si>
+  <si>
+    <t>Espuma al 8%</t>
+  </si>
+  <si>
     <t>LUVOX</t>
   </si>
   <si>
     <t>Antidepresivo.</t>
   </si>
   <si>
-    <t>NEPRO CON CARB STEADY</t>
+    <t>MECHANUN</t>
+  </si>
+  <si>
+    <t>LÍNEA OFTALMOLÓGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicamento </t>
+  </si>
+  <si>
+    <t>Cataplasma</t>
+  </si>
+  <si>
+    <t>MONALTI</t>
+  </si>
+  <si>
+    <t>NEPRO HP</t>
+  </si>
+  <si>
+    <t>NEPRO LOW PROT</t>
   </si>
   <si>
     <t>NIAR</t>
@@ -412,10 +519,22 @@
     <t>Antiarrítmico</t>
   </si>
   <si>
-    <t>OGASTRO</t>
-  </si>
-  <si>
-    <t>Antiulceroso</t>
+    <t>NOVO NORDISK</t>
+  </si>
+  <si>
+    <t>NuevoProducto</t>
+  </si>
+  <si>
+    <t>Inyectable 4 mg/ml x 10 amp</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>OPTIMIN</t>
+  </si>
+  <si>
+    <t>Para la deficiencia de las vitaminas y minerales de la formula, y complemento dietético.</t>
   </si>
   <si>
     <t>PEDIALYTE 30 mEq: CALOR E INSOLACIÓN</t>
@@ -440,12 +559,6 @@
   </si>
   <si>
     <t>Alimentación enteral para niños de entre 1 y 10 años de edad.</t>
-  </si>
-  <si>
-    <t>PERATIVE</t>
-  </si>
-  <si>
-    <t>Nutrición líquida especializada. Para nutrición enteral por sonda.</t>
   </si>
   <si>
     <t>PHENEX 1 Y PHENEX 2</t>
@@ -473,10 +586,28 @@
     <t>Complemento nutricional.</t>
   </si>
   <si>
+    <t>VITAL CARE</t>
+  </si>
+  <si>
+    <t>PRUEB1111</t>
+  </si>
+  <si>
+    <t>Agente de diagnóstico</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
     <t>PULMOCARE</t>
   </si>
   <si>
     <t>Alimentación con balance calórico adecuado para personas con trastornos respiratorios.</t>
+  </si>
+  <si>
+    <t>QUITATODO</t>
+  </si>
+  <si>
+    <t>llll</t>
   </si>
   <si>
     <t>SAMYR</t>
@@ -533,20 +664,13 @@
     <t>SIMILAC SPECIAL CARE 30 KCAL/OZ</t>
   </si>
   <si>
-    <t>SIMILAC TOTAL COMFORT HA IQ PLUS IMMUNIFY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fórmula con hierro para lactantes con proteína parcialmente
-hidrolizada.</t>
-  </si>
-  <si>
-    <t>SIMILAC TOTAL COMFORT HA2 IQ PLUS IMMUNIFY</t>
-  </si>
-  <si>
-    <t>SUPLENA</t>
-  </si>
-  <si>
-    <t>Nutrición líquida para personas con restricción en la ingesta de proteínas, líquidos y electrólitos.</t>
+    <t>SIMILAC TOTAL COMFORT 1</t>
+  </si>
+  <si>
+    <t>SIMILAC TOTAL COMFORT 2</t>
+  </si>
+  <si>
+    <t>SYNTHROID</t>
   </si>
   <si>
     <t>TARKA</t>
@@ -571,6 +695,27 @@
   </si>
   <si>
     <t>Soporte nutricional para niños y adultos con tirosinemia tipos I, II ó III.</t>
+  </si>
+  <si>
+    <t>ZENTIOXOR</t>
+  </si>
+  <si>
+    <t>LÍNEA PIERRE-FABRE ONCO</t>
+  </si>
+  <si>
+    <t>ZsegundaPrueba</t>
+  </si>
+  <si>
+    <t>Gel FPS 30</t>
+  </si>
+  <si>
+    <t>SUNDOWN</t>
+  </si>
+  <si>
+    <t>ZZPrueba</t>
+  </si>
+  <si>
+    <t>Inyectable 400.000 UI x 10 fcos</t>
   </si>
 </sst>
 </file>
@@ -639,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -742,24 +887,24 @@
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -768,24 +913,24 @@
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
@@ -794,51 +939,49 @@
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
@@ -846,76 +989,72 @@
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -924,24 +1063,24 @@
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
@@ -950,24 +1089,24 @@
         <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>19</v>
@@ -976,24 +1115,24 @@
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>19</v>
@@ -1007,69 +1146,69 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -1078,24 +1217,24 @@
         <v>20</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>19</v>
@@ -1104,25 +1243,23 @@
         <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1130,50 +1267,48 @@
         <v>20</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>19</v>
@@ -1182,24 +1317,24 @@
         <v>20</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>19</v>
@@ -1213,45 +1348,45 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>19</v>
@@ -1260,24 +1395,24 @@
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>19</v>
@@ -1286,50 +1421,50 @@
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>19</v>
@@ -1338,24 +1473,24 @@
         <v>20</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>19</v>
@@ -1364,24 +1499,24 @@
         <v>20</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>19</v>
@@ -1390,24 +1525,24 @@
         <v>20</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>19</v>
@@ -1421,19 +1556,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>19</v>
@@ -1442,50 +1577,48 @@
         <v>20</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>19</v>
@@ -1494,24 +1627,24 @@
         <v>20</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>19</v>
@@ -1525,45 +1658,43 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>19</v>
@@ -1577,19 +1708,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>19</v>
@@ -1603,13 +1734,13 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>62</v>
@@ -1627,19 +1758,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>19</v>
@@ -1653,19 +1784,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>19</v>
@@ -1674,24 +1805,24 @@
         <v>20</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>19</v>
@@ -1700,24 +1831,24 @@
         <v>20</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>19</v>
@@ -1726,24 +1857,24 @@
         <v>20</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>19</v>
@@ -1752,50 +1883,48 @@
         <v>20</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>19</v>
@@ -1809,19 +1938,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>19</v>
@@ -1835,19 +1964,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>19</v>
@@ -1861,19 +1990,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>19</v>
@@ -1887,98 +2016,94 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
         <v>19</v>
       </c>
@@ -1991,20 +2116,18 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
@@ -2017,19 +2140,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>19</v>
@@ -2043,19 +2166,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>19</v>
@@ -2069,19 +2192,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>19</v>
@@ -2090,24 +2213,24 @@
         <v>20</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>19</v>
@@ -2116,24 +2239,24 @@
         <v>20</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>19</v>
@@ -2142,24 +2265,24 @@
         <v>20</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>19</v>
@@ -2168,23 +2291,25 @@
         <v>20</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>19</v>
       </c>
@@ -2192,24 +2317,24 @@
         <v>20</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>19</v>
@@ -2223,22 +2348,22 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>20</v>
@@ -2249,25 +2374,23 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>19</v>
@@ -2275,19 +2398,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>19</v>
@@ -2296,45 +2419,45 @@
         <v>20</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
@@ -2349,46 +2472,42 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
         <v>19</v>
       </c>
@@ -2401,22 +2520,20 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>20</v>
@@ -2427,19 +2544,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>19</v>
@@ -2448,24 +2565,24 @@
         <v>20</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>19</v>
@@ -2474,27 +2591,27 @@
         <v>20</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>20</v>
@@ -2505,19 +2622,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>19</v>
@@ -2526,24 +2643,24 @@
         <v>20</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>19</v>
@@ -2557,20 +2674,18 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
         <v>19</v>
       </c>
@@ -2583,20 +2698,18 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>155</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
         <v>19</v>
       </c>
@@ -2609,19 +2722,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>19</v>
@@ -2635,20 +2748,22 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="F83" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>20</v>
@@ -2659,20 +2774,22 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="F84" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>20</v>
@@ -2683,20 +2800,22 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="F85" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>20</v>
@@ -2707,20 +2826,22 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="F86" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>20</v>
@@ -2731,19 +2852,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>19</v>
@@ -2757,19 +2878,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>19</v>
@@ -2783,22 +2904,22 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>20</v>
@@ -2809,19 +2930,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>19</v>
@@ -2835,19 +2956,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>19</v>
@@ -2861,19 +2982,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>19</v>
@@ -2882,24 +3003,24 @@
         <v>20</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>19</v>
@@ -2908,21 +3029,21 @@
         <v>20</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
@@ -2937,20 +3058,18 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>175</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
         <v>19</v>
       </c>
@@ -2963,20 +3082,18 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
         <v>19</v>
       </c>
@@ -2989,20 +3106,18 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
         <v>19</v>
       </c>
@@ -3015,19 +3130,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>19</v>
@@ -3041,19 +3156,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>19</v>
@@ -3067,27 +3182,381 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>19</v>
       </c>
     </row>
